--- a/itmix_results.xlsx
+++ b/itmix_results.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="25">
   <si>
     <t>Mean error (%)</t>
   </si>
@@ -96,13 +96,13 @@
     <t>Morlighem</t>
   </si>
   <si>
-    <t>RAAJglabtop2</t>
-  </si>
-  <si>
     <t>-inf</t>
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>RAAJglabtop2</t>
   </si>
   <si>
     <t>Brinkerhoff</t>
@@ -822,40 +822,160 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>4.172378540039062</v>
+      </c>
+      <c r="E2">
+        <v>3352.603759765625</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>-12.56418037414551</v>
+      </c>
+      <c r="E3">
+        <v>4472.59375</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>35.08135986328125</v>
+      </c>
+      <c r="E4">
+        <v>856.4281616210938</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>11.46960639953613</v>
+      </c>
+      <c r="E5">
+        <v>2429.170166015625</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>17.00118446350098</v>
+      </c>
+      <c r="E6">
+        <v>1718.515380859375</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>11.03818035125732</v>
+      </c>
+      <c r="E7">
+        <v>3076.912109375</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>14.04586887359619</v>
+      </c>
+      <c r="E8">
+        <v>2005.221557617188</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>9.774787902832031</v>
+      </c>
+      <c r="E9">
+        <v>1762.899047851562</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1197,25 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>-53.25994873046875</v>
+      </c>
+      <c r="C10">
+        <v>95.23478698730469</v>
+      </c>
+      <c r="D10">
+        <v>-24.65006065368652</v>
+      </c>
+      <c r="E10">
+        <v>99.60832977294922</v>
+      </c>
+      <c r="F10">
+        <v>-569.1334228515625</v>
+      </c>
+      <c r="G10">
+        <v>68.72022247314453</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1256,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>-18.55640411376953</v>
@@ -1127,10 +1265,10 @@
         <v>5573806</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1138,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>-27.20264434814453</v>
@@ -1147,10 +1285,10 @@
         <v>2052612.5</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1158,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>-45.32521057128906</v>
@@ -1167,10 +1305,10 @@
         <v>3924275</v>
       </c>
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1178,7 +1316,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0.6133899688720703</v>
@@ -1187,10 +1325,10 @@
         <v>1574130.75</v>
       </c>
       <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1198,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>-9.832892417907715</v>
@@ -1207,10 +1345,10 @@
         <v>2068950</v>
       </c>
       <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1218,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>-19.33015441894531</v>
@@ -1227,10 +1365,10 @@
         <v>3072100</v>
       </c>
       <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1238,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>-12.62484741210938</v>
@@ -1247,10 +1385,10 @@
         <v>2737150</v>
       </c>
       <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1258,7 +1396,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>2.03011417388916</v>
@@ -1267,10 +1405,10 @@
         <v>1431550</v>
       </c>
       <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
         <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1278,7 +1416,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>-34.31261444091797</v>
@@ -1287,10 +1425,10 @@
         <v>3018750</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
         <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>30.0478630065918</v>
@@ -1439,10 +1577,10 @@
         <v>92.93070220947266</v>
       </c>
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1473,19 +1611,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>30.97408294677734</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>-119.559928894043</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1493,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>27.63886833190918</v>
@@ -1502,10 +1640,10 @@
         <v>73.84737396240234</v>
       </c>
       <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1513,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>26.94484710693359</v>
@@ -1522,10 +1660,10 @@
         <v>95.59009552001953</v>
       </c>
       <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1556,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>26.77881622314453</v>
@@ -1565,10 +1703,10 @@
         <v>83.29370880126953</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
         <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1576,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>34.92511367797852</v>
@@ -1585,10 +1723,10 @@
         <v>93.12400054931641</v>
       </c>
       <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1596,7 +1734,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>36.43692016601562</v>
@@ -1605,10 +1743,10 @@
         <v>69.1734619140625</v>
       </c>
       <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
         <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1616,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>41.64326858520508</v>
@@ -1625,10 +1763,10 @@
         <v>96.45462036132812</v>
       </c>
       <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1682,7 +1820,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>-20.78604698181152</v>
@@ -1691,10 +1829,10 @@
         <v>157.3760375976562</v>
       </c>
       <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
         <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2054,7 +2192,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>4.921698570251465</v>
@@ -2467,55 +2605,253 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2">
+        <v>12.51301383972168</v>
+      </c>
+      <c r="C2">
+        <v>111.0103225708008</v>
+      </c>
+      <c r="D2">
+        <v>15.17255592346191</v>
+      </c>
+      <c r="E2">
+        <v>497.3871765136719</v>
+      </c>
+      <c r="F2">
+        <v>-243.6819610595703</v>
+      </c>
+      <c r="G2">
+        <v>57.57127380371094</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B3">
+        <v>27.45812797546387</v>
+      </c>
+      <c r="C3">
+        <v>56.5716552734375</v>
+      </c>
+      <c r="D3">
+        <v>18.57002830505371</v>
+      </c>
+      <c r="E3">
+        <v>273.1604614257812</v>
+      </c>
+      <c r="F3">
+        <v>-59.78230285644531</v>
+      </c>
+      <c r="G3">
+        <v>39.07378768920898</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B4">
+        <v>17.51676368713379</v>
+      </c>
+      <c r="C4">
+        <v>394.6164855957031</v>
+      </c>
+      <c r="D4">
+        <v>-11.84753036499023</v>
+      </c>
+      <c r="E4">
+        <v>2080.994140625</v>
+      </c>
+      <c r="F4">
+        <v>-391.2979431152344</v>
+      </c>
+      <c r="G4">
+        <v>129.4788513183594</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B5">
+        <v>45.08314514160156</v>
+      </c>
+      <c r="C5">
+        <v>57.03031921386719</v>
+      </c>
+      <c r="D5">
+        <v>37.71231460571289</v>
+      </c>
+      <c r="E5">
+        <v>332.5151062011719</v>
+      </c>
+      <c r="F5">
+        <v>-27.03409957885742</v>
+      </c>
+      <c r="G5">
+        <v>47.69522476196289</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B6">
+        <v>27.9328498840332</v>
+      </c>
+      <c r="C6">
+        <v>102.8364639282227</v>
+      </c>
+      <c r="D6">
+        <v>44.31308746337891</v>
+      </c>
+      <c r="E6">
+        <v>468.4278564453125</v>
+      </c>
+      <c r="F6">
+        <v>-212.2229766845703</v>
+      </c>
+      <c r="G6">
+        <v>65.72331237792969</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B7">
+        <v>49.17533111572266</v>
+      </c>
+      <c r="C7">
+        <v>129.0576324462891</v>
+      </c>
+      <c r="D7">
+        <v>34.43157196044922</v>
+      </c>
+      <c r="E7">
+        <v>726.0208740234375</v>
+      </c>
+      <c r="F7">
+        <v>-100.6610717773438</v>
+      </c>
+      <c r="G7">
+        <v>58.03549957275391</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B8">
+        <v>49.41606140136719</v>
+      </c>
+      <c r="C8">
+        <v>97.13021087646484</v>
+      </c>
+      <c r="D8">
+        <v>37.29007720947266</v>
+      </c>
+      <c r="E8">
+        <v>566.3037719726562</v>
+      </c>
+      <c r="F8">
+        <v>-26.53452491760254</v>
+      </c>
+      <c r="G8">
+        <v>51.18503189086914</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B9">
+        <v>35.61217880249023</v>
+      </c>
+      <c r="C9">
+        <v>207.6266632080078</v>
+      </c>
+      <c r="D9">
+        <v>2.753007650375366</v>
+      </c>
+      <c r="E9">
+        <v>1124.8779296875</v>
+      </c>
+      <c r="F9">
+        <v>-209.0062103271484</v>
+      </c>
+      <c r="G9">
+        <v>63.14425277709961</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B10">
+        <v>86.11293792724609</v>
+      </c>
+      <c r="C10">
+        <v>20.03078079223633</v>
+      </c>
+      <c r="D10">
+        <v>92.25014495849609</v>
+      </c>
+      <c r="E10">
+        <v>151.6057891845703</v>
+      </c>
+      <c r="F10">
+        <v>48.88668823242188</v>
+      </c>
+      <c r="G10">
+        <v>86.11293792724609</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B11">
+        <v>39.49322509765625</v>
+      </c>
+      <c r="C11">
+        <v>304.0031433105469</v>
+      </c>
+      <c r="D11">
+        <v>-0.1816389560699463</v>
+      </c>
+      <c r="E11">
+        <v>1631.027221679688</v>
+      </c>
+      <c r="F11">
+        <v>-297.8278198242188</v>
+      </c>
+      <c r="G11">
+        <v>96.96082305908203</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>53.43544769287109</v>
+      </c>
+      <c r="C12">
+        <v>127.4895324707031</v>
+      </c>
+      <c r="D12">
+        <v>35.60073089599609</v>
+      </c>
+      <c r="E12">
+        <v>731.4645385742188</v>
+      </c>
+      <c r="F12">
+        <v>-56.98777770996094</v>
+      </c>
+      <c r="G12">
+        <v>57.31096267700195</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +3188,25 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>22.87528610229492</v>
+      </c>
+      <c r="C15">
+        <v>295.7752380371094</v>
+      </c>
+      <c r="D15">
+        <v>26.56030654907227</v>
+      </c>
+      <c r="E15">
+        <v>10924.6005859375</v>
+      </c>
+      <c r="F15">
+        <v>-1672.468383789062</v>
+      </c>
+      <c r="G15">
+        <v>47.17808151245117</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3073,40 +3427,163 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>-14.20143508911133</v>
+      </c>
+      <c r="E2">
+        <v>59.7183952331543</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>-3.58146333694458</v>
+      </c>
+      <c r="E3">
+        <v>60.59386825561523</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>2.326694488525391</v>
+      </c>
+      <c r="E4">
+        <v>44.06588363647461</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>22.78190612792969</v>
+      </c>
+      <c r="E5">
+        <v>60.0659065246582</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>40.73131561279297</v>
+      </c>
+      <c r="E6">
+        <v>63.85087585449219</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>45.01800537109375</v>
+      </c>
+      <c r="E7">
+        <v>63.13152313232422</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>45.15065002441406</v>
+      </c>
+      <c r="E8">
+        <v>83.01984405517578</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B9">
+        <v>9.98552131652832</v>
+      </c>
+      <c r="C9">
+        <v>45.82369613647461</v>
+      </c>
+      <c r="D9">
+        <v>14.03590965270996</v>
+      </c>
+      <c r="E9">
+        <v>96.17656707763672</v>
+      </c>
+      <c r="F9">
+        <v>-766.8095703125</v>
+      </c>
+      <c r="G9">
+        <v>25.21852493286133</v>
       </c>
     </row>
   </sheetData>
@@ -3643,25 +4120,115 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2">
+        <v>13.52015972137451</v>
+      </c>
+      <c r="C2">
+        <v>844.4547729492188</v>
+      </c>
+      <c r="D2">
+        <v>-0.906747043132782</v>
+      </c>
+      <c r="E2">
+        <v>15498.6953125</v>
+      </c>
+      <c r="F2">
+        <v>-5674.46337890625</v>
+      </c>
+      <c r="G2">
+        <v>158.373291015625</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B3">
+        <v>10.92674541473389</v>
+      </c>
+      <c r="C3">
+        <v>1240.989868164062</v>
+      </c>
+      <c r="D3">
+        <v>-39.8414306640625</v>
+      </c>
+      <c r="E3">
+        <v>17299.77734375</v>
+      </c>
+      <c r="F3">
+        <v>-9743.01953125</v>
+      </c>
+      <c r="G3">
+        <v>250.3431701660156</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B4">
+        <v>-20.16850852966309</v>
+      </c>
+      <c r="C4">
+        <v>1111.3330078125</v>
+      </c>
+      <c r="D4">
+        <v>-18.01594734191895</v>
+      </c>
+      <c r="E4">
+        <v>11325.611328125</v>
+      </c>
+      <c r="F4">
+        <v>-11609.888671875</v>
+      </c>
+      <c r="G4">
+        <v>249.7819213867188</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B5">
+        <v>-26.56038856506348</v>
+      </c>
+      <c r="C5">
+        <v>967.2808837890625</v>
+      </c>
+      <c r="D5">
+        <v>-8.812164306640625</v>
+      </c>
+      <c r="E5">
+        <v>10154.51953125</v>
+      </c>
+      <c r="F5">
+        <v>-9279.828125</v>
+      </c>
+      <c r="G5">
+        <v>247.3663635253906</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1.211655616760254</v>
+      </c>
+      <c r="C6">
+        <v>1042.471923828125</v>
+      </c>
+      <c r="D6">
+        <v>34.34675216674805</v>
+      </c>
+      <c r="E6">
+        <v>12186.7314453125</v>
+      </c>
+      <c r="F6">
+        <v>-15781.408203125</v>
+      </c>
+      <c r="G6">
+        <v>186.3205871582031</v>
       </c>
     </row>
   </sheetData>
@@ -4158,6 +4725,24 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6">
+        <v>-11.86106109619141</v>
+      </c>
+      <c r="C6">
+        <v>31.37965393066406</v>
+      </c>
+      <c r="D6">
+        <v>-11.40207958221436</v>
+      </c>
+      <c r="E6">
+        <v>95.24940490722656</v>
+      </c>
+      <c r="F6">
+        <v>-247.9732666015625</v>
+      </c>
+      <c r="G6">
+        <v>24.99246215820312</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
